--- a/config_11.24/game_enter_btn_config.xlsx
+++ b/config_11.24/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="335">
   <si>
     <t>id|行号</t>
   </si>
@@ -1292,10 +1292,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3#2#8#61#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>核弹</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1363,10 +1359,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>立冬福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1475,6 +1467,30 @@
   </si>
   <si>
     <t>111#112#53#79#100;36;113;89;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_ggxt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费(冲金鸡)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#2#8#61#115</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|推荐的条件key可以为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_ad_mfcj",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1635,14 +1651,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1662,6 +1672,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,11 +1756,11 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2072,7 +2097,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2473,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2531,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,10 +2582,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2568,10 +2593,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2579,10 +2604,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2674,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2897,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>276</v>
@@ -2987,13 +3012,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3001,29 +3026,33 @@
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.25" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3033,14 +3062,15 @@
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3050,14 +3080,15 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3067,14 +3098,15 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3084,14 +3116,15 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3101,14 +3134,15 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3118,14 +3152,15 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3135,14 +3170,15 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3152,14 +3188,15 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3169,14 +3206,15 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3186,14 +3224,15 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3203,14 +3242,15 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3220,14 +3260,15 @@
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3237,14 +3278,15 @@
       <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3254,14 +3296,15 @@
       <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3271,14 +3314,15 @@
       <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3288,14 +3332,15 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3305,14 +3350,15 @@
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3322,14 +3368,15 @@
       <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3339,14 +3386,15 @@
       <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
         <v>19</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3356,14 +3404,15 @@
       <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
         <v>20</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3373,14 +3422,15 @@
       <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
         <v>21</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3390,14 +3440,15 @@
       <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
         <v>22</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3407,14 +3458,15 @@
       <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
         <v>23</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3424,14 +3476,15 @@
       <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>24</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3441,14 +3494,15 @@
       <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <v>25</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3458,14 +3512,15 @@
       <c r="C27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
         <v>26</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3475,14 +3530,15 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>27</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3492,14 +3548,15 @@
       <c r="C29" s="6">
         <v>0</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <v>28</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3509,14 +3566,15 @@
       <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
         <v>29</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3526,14 +3584,15 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
         <v>30</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3543,14 +3602,15 @@
       <c r="C32" s="6">
         <v>0</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
         <v>31</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3560,14 +3620,15 @@
       <c r="C33" s="6">
         <v>0</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
         <v>32</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3577,14 +3638,15 @@
       <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
         <v>33</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3594,14 +3656,15 @@
       <c r="C35" s="6">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
         <v>34</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3611,14 +3674,15 @@
       <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
         <v>35</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3628,14 +3692,15 @@
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
         <v>36</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3645,14 +3710,15 @@
       <c r="C38" s="6">
         <v>1</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
         <v>37</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3662,14 +3728,15 @@
       <c r="C39" s="6">
         <v>1</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
         <v>38</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3679,14 +3746,15 @@
       <c r="C40" s="6">
         <v>1</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
         <v>39</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3696,14 +3764,15 @@
       <c r="C41" s="6">
         <v>1</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
         <v>40</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3713,14 +3782,14 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>41</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3730,14 +3799,14 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>42</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3747,14 +3816,14 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>43</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3764,14 +3833,14 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>44</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3781,14 +3850,14 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>45</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3798,14 +3867,14 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>46</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3815,14 +3884,14 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>47</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3832,14 +3901,14 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>48</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3849,14 +3918,14 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>49</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3866,14 +3935,14 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>50</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3883,14 +3952,14 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>51</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3900,14 +3969,14 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>52</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3917,14 +3986,15 @@
       <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
         <v>53</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3934,14 +4004,14 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>54</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3951,14 +4021,14 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>55</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3968,14 +4038,14 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>56</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3985,14 +4055,14 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>57</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4002,14 +4072,14 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>58</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4019,14 +4089,14 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>59</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4036,14 +4106,14 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>60</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4053,14 +4123,14 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>61</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4070,14 +4140,14 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>62</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4087,14 +4157,14 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>63</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4104,14 +4174,14 @@
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>64</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4121,14 +4191,14 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>65</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4138,14 +4208,14 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>66</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4155,14 +4225,14 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>67</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4172,14 +4242,14 @@
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>68</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4189,14 +4259,14 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>69</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4206,14 +4276,14 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>70</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4223,14 +4293,14 @@
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>71</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4240,14 +4310,14 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>72</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4257,14 +4327,14 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>73</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4274,14 +4344,14 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>74</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4291,14 +4361,14 @@
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>75</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4308,14 +4378,14 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>76</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4325,14 +4395,14 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>77</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4342,14 +4412,14 @@
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>78</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4359,14 +4429,14 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>79</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4376,14 +4446,14 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>80</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4393,14 +4463,14 @@
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>81</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="F82" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4410,14 +4480,14 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>82</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4427,14 +4497,14 @@
       <c r="C84">
         <v>0</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>83</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4444,14 +4514,14 @@
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>84</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4461,14 +4531,14 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>85</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4478,14 +4548,14 @@
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>86</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4495,14 +4565,17 @@
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E88">
         <v>87</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4512,14 +4585,14 @@
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>88</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4529,14 +4602,14 @@
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>89</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4546,14 +4619,14 @@
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>90</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4563,14 +4636,14 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>91</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4580,14 +4653,14 @@
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>92</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4597,14 +4670,14 @@
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>93</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4614,14 +4687,14 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>94</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4631,14 +4704,14 @@
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>95</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4648,14 +4721,14 @@
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>96</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4665,14 +4738,15 @@
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="6"/>
+      <c r="E98">
         <v>97</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4682,14 +4756,14 @@
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>98</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4699,14 +4773,14 @@
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>99</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4716,14 +4790,14 @@
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>100</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4733,14 +4807,14 @@
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>101</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4750,215 +4824,235 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>102</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>103</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C105" s="15">
+        <v>1</v>
+      </c>
+      <c r="E105" s="15">
+        <v>104</v>
+      </c>
+      <c r="F105" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C105" s="15">
-        <v>1</v>
-      </c>
-      <c r="D105" s="15">
-        <v>104</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>105</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>106</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>107</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>108</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>109</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>110</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>111</v>
       </c>
-      <c r="E112" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>112</v>
       </c>
-      <c r="E113" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>113</v>
       </c>
-      <c r="E114" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>114</v>
       </c>
-      <c r="E115" t="s">
-        <v>327</v>
+      <c r="F115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E116">
+        <v>115</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5194,7 +5288,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5281,10 +5375,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5296,10 +5390,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5337,14 +5431,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D2" s="6">
-        <f>'all_enter|所有按钮入口'!D2</f>
+        <f>'all_enter|所有按钮入口'!E2</f>
         <v>1</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E2</f>
+        <f>'all_enter|所有按钮入口'!F2</f>
         <v>快乐礼包</v>
       </c>
     </row>
@@ -5356,14 +5450,14 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3" s="6">
-        <f>'all_enter|所有按钮入口'!D3</f>
+        <f>'all_enter|所有按钮入口'!E3</f>
         <v>2</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E3</f>
+        <f>'all_enter|所有按钮入口'!F3</f>
         <v>大厅vip专享</v>
       </c>
       <c r="G3" s="6"/>
@@ -5379,14 +5473,14 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D4" s="6">
-        <f>'all_enter|所有按钮入口'!D4</f>
+        <f>'all_enter|所有按钮入口'!E4</f>
         <v>3</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E4</f>
+        <f>'all_enter|所有按钮入口'!F4</f>
         <v>幸运抽奖</v>
       </c>
     </row>
@@ -5399,11 +5493,11 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
-        <f>'all_enter|所有按钮入口'!D5</f>
+        <f>'all_enter|所有按钮入口'!E5</f>
         <v>4</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E5</f>
+        <f>'all_enter|所有按钮入口'!F5</f>
         <v>分享</v>
       </c>
       <c r="G5" s="6"/>
@@ -5419,11 +5513,11 @@
         <v>93</v>
       </c>
       <c r="D6" s="6">
-        <f>'all_enter|所有按钮入口'!D6</f>
+        <f>'all_enter|所有按钮入口'!E6</f>
         <v>5</v>
       </c>
       <c r="E6" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E6</f>
+        <f>'all_enter|所有按钮入口'!F6</f>
         <v>新人红包</v>
       </c>
     </row>
@@ -5438,11 +5532,11 @@
         <v>164</v>
       </c>
       <c r="D7" s="6">
-        <f>'all_enter|所有按钮入口'!D7</f>
+        <f>'all_enter|所有按钮入口'!E7</f>
         <v>6</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E7</f>
+        <f>'all_enter|所有按钮入口'!F7</f>
         <v>大厅千元赛</v>
       </c>
     </row>
@@ -5451,17 +5545,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D8" s="6">
-        <f>'all_enter|所有按钮入口'!D8</f>
+        <f>'all_enter|所有按钮入口'!E8</f>
         <v>7</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E8</f>
+        <f>'all_enter|所有按钮入口'!F8</f>
         <v>首充礼包</v>
       </c>
     </row>
@@ -5469,22 +5563,22 @@
       <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
-        <f>'all_enter|所有按钮入口'!D9</f>
+        <f>'all_enter|所有按钮入口'!E9</f>
         <v>8</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E9</f>
+        <f>'all_enter|所有按钮入口'!F9</f>
         <v>鲸鱼福利</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="D10" s="6">
-        <f>'all_enter|所有按钮入口'!D10</f>
+        <f>'all_enter|所有按钮入口'!E10</f>
         <v>9</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E10</f>
+        <f>'all_enter|所有按钮入口'!F10</f>
         <v>限时福利</v>
       </c>
     </row>
@@ -5492,990 +5586,1022 @@
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
-        <f>'all_enter|所有按钮入口'!D11</f>
+        <f>'all_enter|所有按钮入口'!E11</f>
         <v>10</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E11</f>
+        <f>'all_enter|所有按钮入口'!F11</f>
         <v>月卡</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="6">
-        <f>'all_enter|所有按钮入口'!D12</f>
+        <f>'all_enter|所有按钮入口'!E12</f>
         <v>11</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E12</f>
+        <f>'all_enter|所有按钮入口'!F12</f>
         <v>节日扩展活动</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="6">
-        <f>'all_enter|所有按钮入口'!D13</f>
+        <f>'all_enter|所有按钮入口'!E13</f>
         <v>12</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E13</f>
+        <f>'all_enter|所有按钮入口'!F13</f>
         <v>幸运降临</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="6">
-        <f>'all_enter|所有按钮入口'!D14</f>
+        <f>'all_enter|所有按钮入口'!E14</f>
         <v>13</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E14</f>
+        <f>'all_enter|所有按钮入口'!F14</f>
         <v>消消乐水果排行榜</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="6">
-        <f>'all_enter|所有按钮入口'!D15</f>
+        <f>'all_enter|所有按钮入口'!E15</f>
         <v>14</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E15</f>
+        <f>'all_enter|所有按钮入口'!F15</f>
         <v>水浒消消乐每日任务</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="6">
-        <f>'all_enter|所有按钮入口'!D16</f>
+        <f>'all_enter|所有按钮入口'!E16</f>
         <v>15</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E16</f>
+        <f>'all_enter|所有按钮入口'!F16</f>
         <v>水果消消乐每日任务</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="6">
-        <f>'all_enter|所有按钮入口'!D17</f>
+        <f>'all_enter|所有按钮入口'!E17</f>
         <v>16</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E17</f>
+        <f>'all_enter|所有按钮入口'!F17</f>
         <v>新人专属</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="6">
-        <f>'all_enter|所有按钮入口'!D18</f>
+        <f>'all_enter|所有按钮入口'!E18</f>
         <v>17</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E18</f>
+        <f>'all_enter|所有按钮入口'!F18</f>
         <v>捕鱼达人榜</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="6">
-        <f>'all_enter|所有按钮入口'!D19</f>
+        <f>'all_enter|所有按钮入口'!E19</f>
         <v>18</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E19</f>
+        <f>'all_enter|所有按钮入口'!F19</f>
         <v>千元赛提示</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="6">
-        <f>'all_enter|所有按钮入口'!D20</f>
+        <f>'all_enter|所有按钮入口'!E20</f>
         <v>19</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E20</f>
+        <f>'all_enter|所有按钮入口'!F20</f>
         <v>捕鱼比赛提示</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="6">
-        <f>'all_enter|所有按钮入口'!D21</f>
+        <f>'all_enter|所有按钮入口'!E21</f>
         <v>20</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E21</f>
+        <f>'all_enter|所有按钮入口'!F21</f>
         <v>捕鱼门票</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="6">
-        <f>'all_enter|所有按钮入口'!D22</f>
+        <f>'all_enter|所有按钮入口'!E22</f>
         <v>21</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E22</f>
+        <f>'all_enter|所有按钮入口'!F22</f>
         <v>感恩有礼</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="6">
-        <f>'all_enter|所有按钮入口'!D23</f>
+        <f>'all_enter|所有按钮入口'!E23</f>
         <v>22</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E23</f>
+        <f>'all_enter|所有按钮入口'!F23</f>
         <v>雪球大作战</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="6">
-        <f>'all_enter|所有按钮入口'!D24</f>
+        <f>'all_enter|所有按钮入口'!E24</f>
         <v>23</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E24</f>
+        <f>'all_enter|所有按钮入口'!F24</f>
         <v>推广礼包</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="6">
-        <f>'all_enter|所有按钮入口'!D25</f>
+        <f>'all_enter|所有按钮入口'!E25</f>
         <v>24</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E25</f>
+        <f>'all_enter|所有按钮入口'!F25</f>
         <v>疯狂双12</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6">
-        <f>'all_enter|所有按钮入口'!D26</f>
+        <f>'all_enter|所有按钮入口'!E26</f>
         <v>25</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E26</f>
+        <f>'all_enter|所有按钮入口'!F26</f>
         <v>财神模式</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="6">
-        <f>'all_enter|所有按钮入口'!D27</f>
+        <f>'all_enter|所有按钮入口'!E27</f>
         <v>26</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E27</f>
+        <f>'all_enter|所有按钮入口'!F27</f>
         <v>新版新人红包</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="6">
-        <f>'all_enter|所有按钮入口'!D28</f>
+        <f>'all_enter|所有按钮入口'!E28</f>
         <v>27</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E28</f>
+        <f>'all_enter|所有按钮入口'!F28</f>
         <v>新版1元礼包</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="6">
-        <f>'all_enter|所有按钮入口'!D29</f>
+        <f>'all_enter|所有按钮入口'!E29</f>
         <v>28</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E29</f>
+        <f>'all_enter|所有按钮入口'!F29</f>
         <v>圣诞敲敲乐</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="6">
-        <f>'all_enter|所有按钮入口'!D30</f>
+        <f>'all_enter|所有按钮入口'!E30</f>
         <v>29</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E30</f>
+        <f>'all_enter|所有按钮入口'!F30</f>
         <v>全返礼包</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="6">
-        <f>'all_enter|所有按钮入口'!D31</f>
+        <f>'all_enter|所有按钮入口'!E31</f>
         <v>30</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E31</f>
+        <f>'all_enter|所有按钮入口'!F31</f>
         <v>每日特惠礼包</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="6">
-        <f>'all_enter|所有按钮入口'!D32</f>
+        <f>'all_enter|所有按钮入口'!E32</f>
         <v>31</v>
       </c>
       <c r="E32" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E32</f>
+        <f>'all_enter|所有按钮入口'!F32</f>
         <v>欢庆元旦</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="6">
-        <f>'all_enter|所有按钮入口'!D33</f>
+        <f>'all_enter|所有按钮入口'!E33</f>
         <v>32</v>
       </c>
       <c r="E33" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E33</f>
+        <f>'all_enter|所有按钮入口'!F33</f>
         <v>水浒图标</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="6">
-        <f>'all_enter|所有按钮入口'!D34</f>
+        <f>'all_enter|所有按钮入口'!E34</f>
         <v>33</v>
       </c>
       <c r="E34" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E34</f>
+        <f>'all_enter|所有按钮入口'!F34</f>
         <v>随机鲸币</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="6">
-        <f>'all_enter|所有按钮入口'!D35</f>
+        <f>'all_enter|所有按钮入口'!E35</f>
         <v>34</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E35</f>
+        <f>'all_enter|所有按钮入口'!F35</f>
         <v>飞-红包</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="6">
-        <f>'all_enter|所有按钮入口'!D36</f>
+        <f>'all_enter|所有按钮入口'!E36</f>
         <v>35</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E36</f>
+        <f>'all_enter|所有按钮入口'!F36</f>
         <v>浪漫情人节</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="6">
-        <f>'all_enter|所有按钮入口'!D37</f>
+        <f>'all_enter|所有按钮入口'!E37</f>
         <v>36</v>
       </c>
       <c r="E37" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E37</f>
+        <f>'all_enter|所有按钮入口'!F37</f>
         <v>新人七天乐</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="6">
-        <f>'all_enter|所有按钮入口'!D38</f>
+        <f>'all_enter|所有按钮入口'!E38</f>
         <v>37</v>
       </c>
       <c r="E38" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E38</f>
+        <f>'all_enter|所有按钮入口'!F38</f>
         <v>分享拉新</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="6">
-        <f>'all_enter|所有按钮入口'!D39</f>
+        <f>'all_enter|所有按钮入口'!E39</f>
         <v>38</v>
       </c>
       <c r="E39" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E39</f>
+        <f>'all_enter|所有按钮入口'!F39</f>
         <v>龙腾祈福</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="6">
-        <f>'all_enter|所有按钮入口'!D40</f>
+        <f>'all_enter|所有按钮入口'!E40</f>
         <v>39</v>
       </c>
       <c r="E40" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E40</f>
+        <f>'all_enter|所有按钮入口'!F40</f>
         <v>房卡场入口</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="6">
-        <f>'all_enter|所有按钮入口'!D41</f>
+        <f>'all_enter|所有按钮入口'!E41</f>
         <v>40</v>
       </c>
       <c r="E41" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E41</f>
+        <f>'all_enter|所有按钮入口'!F41</f>
         <v>幸运彩贝</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="6">
-        <f>'all_enter|所有按钮入口'!D42</f>
+        <f>'all_enter|所有按钮入口'!E42</f>
         <v>41</v>
       </c>
       <c r="E42" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E42</f>
+        <f>'all_enter|所有按钮入口'!F42</f>
         <v>植树礼物</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="6">
-        <f>'all_enter|所有按钮入口'!D43</f>
+        <f>'all_enter|所有按钮入口'!E43</f>
         <v>42</v>
       </c>
       <c r="E43" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E43</f>
+        <f>'all_enter|所有按钮入口'!F43</f>
         <v>季卡</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="6">
-        <f>'all_enter|所有按钮入口'!D44</f>
+        <f>'all_enter|所有按钮入口'!E44</f>
         <v>43</v>
       </c>
       <c r="E44" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E44</f>
+        <f>'all_enter|所有按钮入口'!F44</f>
         <v>彩金鱼抽奖</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="6">
-        <f>'all_enter|所有按钮入口'!D45</f>
+        <f>'all_enter|所有按钮入口'!E45</f>
         <v>44</v>
       </c>
       <c r="E45" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E45</f>
+        <f>'all_enter|所有按钮入口'!F45</f>
         <v>0元礼包</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="6">
-        <f>'all_enter|所有按钮入口'!D46</f>
+        <f>'all_enter|所有按钮入口'!E46</f>
         <v>45</v>
       </c>
       <c r="E46" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E46</f>
+        <f>'all_enter|所有按钮入口'!F46</f>
         <v>红包分享</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="6">
-        <f>'all_enter|所有按钮入口'!D47</f>
+        <f>'all_enter|所有按钮入口'!E47</f>
         <v>46</v>
       </c>
       <c r="E47" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E47</f>
+        <f>'all_enter|所有按钮入口'!F47</f>
         <v>财神消消乐</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="6">
-        <f>'all_enter|所有按钮入口'!D48</f>
+        <f>'all_enter|所有按钮入口'!E48</f>
         <v>47</v>
       </c>
       <c r="E48" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E48</f>
+        <f>'all_enter|所有按钮入口'!F48</f>
         <v>随机领红包</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="6">
-        <f>'all_enter|所有按钮入口'!D49</f>
+        <f>'all_enter|所有按钮入口'!E49</f>
         <v>48</v>
       </c>
       <c r="E49" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E49</f>
+        <f>'all_enter|所有按钮入口'!F49</f>
         <v>回归惊喜</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="6">
-        <f>'all_enter|所有按钮入口'!D50</f>
+        <f>'all_enter|所有按钮入口'!E50</f>
         <v>49</v>
       </c>
       <c r="E50" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E50</f>
+        <f>'all_enter|所有按钮入口'!F50</f>
         <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="6">
-        <f>'all_enter|所有按钮入口'!D51</f>
+        <f>'all_enter|所有按钮入口'!E51</f>
         <v>50</v>
       </c>
       <c r="E51" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E51</f>
+        <f>'all_enter|所有按钮入口'!F51</f>
         <v>疯狂返利</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="6">
-        <f>'all_enter|所有按钮入口'!D52</f>
+        <f>'all_enter|所有按钮入口'!E52</f>
         <v>51</v>
       </c>
       <c r="E52" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E52</f>
+        <f>'all_enter|所有按钮入口'!F52</f>
         <v xml:space="preserve"> 抽空调</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="6">
-        <f>'all_enter|所有按钮入口'!D53</f>
+        <f>'all_enter|所有按钮入口'!E53</f>
         <v>52</v>
       </c>
       <c r="E53" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E53</f>
+        <f>'all_enter|所有按钮入口'!F53</f>
         <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="6">
-        <f>'all_enter|所有按钮入口'!D54</f>
+        <f>'all_enter|所有按钮入口'!E54</f>
         <v>53</v>
       </c>
       <c r="E54" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E54</f>
+        <f>'all_enter|所有按钮入口'!F54</f>
         <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="6">
-        <f>'all_enter|所有按钮入口'!D55</f>
+        <f>'all_enter|所有按钮入口'!E55</f>
         <v>54</v>
       </c>
       <c r="E55" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E55</f>
+        <f>'all_enter|所有按钮入口'!F55</f>
         <v>连购返利</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="6">
-        <f>'all_enter|所有按钮入口'!D56</f>
+        <f>'all_enter|所有按钮入口'!E56</f>
         <v>55</v>
       </c>
       <c r="E56" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E56</f>
+        <f>'all_enter|所有按钮入口'!F56</f>
         <v>免费红包</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="6">
-        <f>'all_enter|所有按钮入口'!D57</f>
+        <f>'all_enter|所有按钮入口'!E57</f>
         <v>56</v>
       </c>
       <c r="E57" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E57</f>
+        <f>'all_enter|所有按钮入口'!F57</f>
         <v>幸运彩蛋</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="6">
-        <f>'all_enter|所有按钮入口'!D58</f>
+        <f>'all_enter|所有按钮入口'!E58</f>
         <v>57</v>
       </c>
       <c r="E58" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E58</f>
+        <f>'all_enter|所有按钮入口'!F58</f>
         <v>消消乐红包任务</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="6">
-        <f>'all_enter|所有按钮入口'!D59</f>
+        <f>'all_enter|所有按钮入口'!E59</f>
         <v>58</v>
       </c>
       <c r="E59" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E59</f>
+        <f>'all_enter|所有按钮入口'!F59</f>
         <v>新首充礼包</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="6">
-        <f>'all_enter|所有按钮入口'!D60</f>
+        <f>'all_enter|所有按钮入口'!E60</f>
         <v>59</v>
       </c>
       <c r="E60" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E60</f>
+        <f>'all_enter|所有按钮入口'!F60</f>
         <v>母亲节特惠</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="6">
-        <f>'all_enter|所有按钮入口'!D61</f>
+        <f>'all_enter|所有按钮入口'!E61</f>
         <v>60</v>
       </c>
       <c r="E61" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E61</f>
+        <f>'all_enter|所有按钮入口'!F61</f>
         <v>水果消消乐</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="6">
-        <f>'all_enter|所有按钮入口'!D62</f>
+        <f>'all_enter|所有按钮入口'!E62</f>
         <v>61</v>
       </c>
       <c r="E62" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E62</f>
+        <f>'all_enter|所有按钮入口'!F62</f>
         <v>存钱罐</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="6">
-        <f>'all_enter|所有按钮入口'!D63</f>
+        <f>'all_enter|所有按钮入口'!E63</f>
         <v>62</v>
       </c>
       <c r="E63" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E63</f>
+        <f>'all_enter|所有按钮入口'!F63</f>
         <v>问题反馈</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="6">
-        <f>'all_enter|所有按钮入口'!D64</f>
+        <f>'all_enter|所有按钮入口'!E64</f>
         <v>63</v>
       </c>
       <c r="E64" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E64</f>
+        <f>'all_enter|所有按钮入口'!F64</f>
         <v>3D捕鱼测试排行榜</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="6">
-        <f>'all_enter|所有按钮入口'!D65</f>
+        <f>'all_enter|所有按钮入口'!E65</f>
         <v>64</v>
       </c>
       <c r="E65" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E65</f>
+        <f>'all_enter|所有按钮入口'!F65</f>
         <v>排名赛</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="6">
-        <f>'all_enter|所有按钮入口'!D66</f>
+        <f>'all_enter|所有按钮入口'!E66</f>
         <v>65</v>
       </c>
       <c r="E66" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E66</f>
+        <f>'all_enter|所有按钮入口'!F66</f>
         <v>3D捕鱼奖池-大厅显示奖池图标</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="6">
-        <f>'all_enter|所有按钮入口'!D67</f>
+        <f>'all_enter|所有按钮入口'!E67</f>
         <v>66</v>
       </c>
       <c r="E67" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E67</f>
+        <f>'all_enter|所有按钮入口'!F67</f>
         <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="6">
-        <f>'all_enter|所有按钮入口'!D68</f>
+        <f>'all_enter|所有按钮入口'!E68</f>
         <v>67</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E68</f>
+        <f>'all_enter|所有按钮入口'!F68</f>
         <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="6">
-        <f>'all_enter|所有按钮入口'!D69</f>
+        <f>'all_enter|所有按钮入口'!E69</f>
         <v>68</v>
       </c>
       <c r="E69" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E69</f>
+        <f>'all_enter|所有按钮入口'!F69</f>
         <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="6">
-        <f>'all_enter|所有按钮入口'!D70</f>
+        <f>'all_enter|所有按钮入口'!E70</f>
         <v>69</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E70</f>
+        <f>'all_enter|所有按钮入口'!F70</f>
         <v>3D捕鱼奖池-游戏内显示奖池图标</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="6">
-        <f>'all_enter|所有按钮入口'!D71</f>
+        <f>'all_enter|所有按钮入口'!E71</f>
         <v>70</v>
       </c>
       <c r="E71" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E71</f>
+        <f>'all_enter|所有按钮入口'!F71</f>
         <v>3D捕鱼奖池-显示说明界面</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="6">
-        <f>'all_enter|所有按钮入口'!D72</f>
+        <f>'all_enter|所有按钮入口'!E72</f>
         <v>71</v>
       </c>
       <c r="E72" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E72</f>
+        <f>'all_enter|所有按钮入口'!F72</f>
         <v>3D捕鱼开炮送红包-场次2大厅显示</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" s="6">
-        <f>'all_enter|所有按钮入口'!D73</f>
+        <f>'all_enter|所有按钮入口'!E73</f>
         <v>72</v>
       </c>
       <c r="E73" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E73</f>
+        <f>'all_enter|所有按钮入口'!F73</f>
         <v>兑换按钮</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="6">
-        <f>'all_enter|所有按钮入口'!D74</f>
+        <f>'all_enter|所有按钮入口'!E74</f>
         <v>73</v>
       </c>
       <c r="E74" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E74</f>
+        <f>'all_enter|所有按钮入口'!F74</f>
         <v>boss来袭</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="6">
-        <f>'all_enter|所有按钮入口'!D75</f>
+        <f>'all_enter|所有按钮入口'!E75</f>
         <v>74</v>
       </c>
       <c r="E75" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E75</f>
+        <f>'all_enter|所有按钮入口'!F75</f>
         <v>活跃任务</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="6">
-        <f>'all_enter|所有按钮入口'!D76</f>
+        <f>'all_enter|所有按钮入口'!E76</f>
         <v>75</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E76</f>
+        <f>'all_enter|所有按钮入口'!F76</f>
         <v>3D捕鱼开炮送红包-场次3大厅显示</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="6">
-        <f>'all_enter|所有按钮入口'!D77</f>
+        <f>'all_enter|所有按钮入口'!E77</f>
         <v>76</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E77</f>
+        <f>'all_enter|所有按钮入口'!F77</f>
         <v>3D捕鱼开炮送红包-场次4大厅显示</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="6">
-        <f>'all_enter|所有按钮入口'!D78</f>
+        <f>'all_enter|所有按钮入口'!E78</f>
         <v>77</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E78</f>
+        <f>'all_enter|所有按钮入口'!F78</f>
         <v>3D捕鱼开炮送红包-场次5大厅显示</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="6">
-        <f>'all_enter|所有按钮入口'!D79</f>
+        <f>'all_enter|所有按钮入口'!E79</f>
         <v>78</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E79</f>
+        <f>'all_enter|所有按钮入口'!F79</f>
         <v>3D捕鱼开炮送红包-游戏内</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="6">
-        <f>'all_enter|所有按钮入口'!D80</f>
+        <f>'all_enter|所有按钮入口'!E80</f>
         <v>79</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E80</f>
+        <f>'all_enter|所有按钮入口'!F80</f>
         <v>炮台升级按钮</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="6">
-        <f>'all_enter|所有按钮入口'!D81</f>
+        <f>'all_enter|所有按钮入口'!E81</f>
         <v>80</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E81</f>
+        <f>'all_enter|所有按钮入口'!F81</f>
         <v>畅玩卡</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="6">
-        <f>'all_enter|所有按钮入口'!D82</f>
+        <f>'all_enter|所有按钮入口'!E82</f>
         <v>81</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E82</f>
+        <f>'all_enter|所有按钮入口'!F82</f>
         <v>3D捕鱼挑战任务</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="6">
-        <f>'all_enter|所有按钮入口'!D83</f>
+        <f>'all_enter|所有按钮入口'!E83</f>
         <v>82</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E83</f>
+        <f>'all_enter|所有按钮入口'!F83</f>
         <v>3D捕鱼游戏上方区域</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="6">
-        <f>'all_enter|所有按钮入口'!D84</f>
+        <f>'all_enter|所有按钮入口'!E84</f>
         <v>83</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E84</f>
+        <f>'all_enter|所有按钮入口'!F84</f>
         <v>师徒系统</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="6">
-        <f>'all_enter|所有按钮入口'!D85</f>
+        <f>'all_enter|所有按钮入口'!E85</f>
         <v>84</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E85</f>
+        <f>'all_enter|所有按钮入口'!F85</f>
         <v>全返礼包</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="6">
-        <f>'all_enter|所有按钮入口'!D86</f>
+        <f>'all_enter|所有按钮入口'!E86</f>
         <v>85</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E86</f>
+        <f>'all_enter|所有按钮入口'!F86</f>
         <v>签到</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="6">
-        <f>'all_enter|所有按钮入口'!D87</f>
+        <f>'all_enter|所有按钮入口'!E87</f>
         <v>86</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E87</f>
+        <f>'all_enter|所有按钮入口'!F87</f>
         <v>3D捕鱼自动开炮</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="6">
-        <f>'all_enter|所有按钮入口'!D88</f>
+        <f>'all_enter|所有按钮入口'!E88</f>
         <v>87</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E88</f>
+        <f>'all_enter|所有按钮入口'!F88</f>
         <v>免费抽奖-广告</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="6">
-        <f>'all_enter|所有按钮入口'!D89</f>
+        <f>'all_enter|所有按钮入口'!E89</f>
         <v>88</v>
       </c>
       <c r="E89" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E89</f>
+        <f>'all_enter|所有按钮入口'!F89</f>
         <v>超值礼包</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="6">
-        <f>'all_enter|所有按钮入口'!D90</f>
+        <f>'all_enter|所有按钮入口'!E90</f>
         <v>89</v>
       </c>
       <c r="E90" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E90</f>
+        <f>'all_enter|所有按钮入口'!F90</f>
         <v>新人抽大奖</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="6">
-        <f>'all_enter|所有按钮入口'!D91</f>
+        <f>'all_enter|所有按钮入口'!E91</f>
         <v>90</v>
       </c>
       <c r="E91" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E91</f>
+        <f>'all_enter|所有按钮入口'!F91</f>
         <v>水果消消乐引导</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="6">
-        <f>'all_enter|所有按钮入口'!D92</f>
+        <f>'all_enter|所有按钮入口'!E92</f>
         <v>91</v>
       </c>
       <c r="E92" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E92</f>
+        <f>'all_enter|所有按钮入口'!F92</f>
         <v>水果消消乐大引导</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="6">
-        <f>'all_enter|所有按钮入口'!D93</f>
+        <f>'all_enter|所有按钮入口'!E93</f>
         <v>92</v>
       </c>
       <c r="E93" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E93</f>
+        <f>'all_enter|所有按钮入口'!F93</f>
         <v>推广系统</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="6">
-        <f>'all_enter|所有按钮入口'!D94</f>
+        <f>'all_enter|所有按钮入口'!E94</f>
         <v>93</v>
       </c>
       <c r="E94" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E94</f>
+        <f>'all_enter|所有按钮入口'!F94</f>
         <v>金秋送豪礼</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="6">
-        <f>'all_enter|所有按钮入口'!D95</f>
+        <f>'all_enter|所有按钮入口'!E95</f>
         <v>94</v>
       </c>
       <c r="E95" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E95</f>
+        <f>'all_enter|所有按钮入口'!F95</f>
         <v>免费福利券</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="6">
-        <f>'all_enter|所有按钮入口'!D96</f>
+        <f>'all_enter|所有按钮入口'!E96</f>
         <v>95</v>
       </c>
       <c r="E96" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E96</f>
+        <f>'all_enter|所有按钮入口'!F96</f>
         <v>奖池按钮图标</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="6">
-        <f>'all_enter|所有按钮入口'!D97</f>
+        <f>'all_enter|所有按钮入口'!E97</f>
         <v>96</v>
       </c>
       <c r="E97" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E97</f>
+        <f>'all_enter|所有按钮入口'!F97</f>
         <v>奖池游戏内显示</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="6">
-        <f>'all_enter|所有按钮入口'!D98</f>
+        <f>'all_enter|所有按钮入口'!E98</f>
         <v>97</v>
       </c>
       <c r="E98" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E98</f>
+        <f>'all_enter|所有按钮入口'!F98</f>
         <v>免费话费</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="6">
-        <f>'all_enter|所有按钮入口'!D99</f>
+        <f>'all_enter|所有按钮入口'!E99</f>
         <v>98</v>
       </c>
       <c r="E99" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E99</f>
+        <f>'all_enter|所有按钮入口'!F99</f>
         <v>幸运彩蛋</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="6">
-        <f>'all_enter|所有按钮入口'!D100</f>
+        <f>'all_enter|所有按钮入口'!E100</f>
         <v>99</v>
       </c>
       <c r="E100" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E100</f>
+        <f>'all_enter|所有按钮入口'!F100</f>
         <v>街机捕鱼游戏上方区域</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="6">
-        <f>'all_enter|所有按钮入口'!D101</f>
+        <f>'all_enter|所有按钮入口'!E101</f>
         <v>100</v>
       </c>
       <c r="E101" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E101</f>
+        <f>'all_enter|所有按钮入口'!F101</f>
         <v>欢乐敲金蛋</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="6">
-        <f>'all_enter|所有按钮入口'!D102</f>
+        <f>'all_enter|所有按钮入口'!E102</f>
         <v>101</v>
       </c>
       <c r="E102" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E102</f>
+        <f>'all_enter|所有按钮入口'!F102</f>
         <v>小游戏累计赢金抽福卡</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="6">
-        <f>'all_enter|所有按钮入口'!D103</f>
+        <f>'all_enter|所有按钮入口'!E103</f>
         <v>102</v>
       </c>
       <c r="E103" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E103</f>
+        <f>'all_enter|所有按钮入口'!F103</f>
         <v>畅玩礼包</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="6">
-        <f>'all_enter|所有按钮入口'!D104</f>
+        <f>'all_enter|所有按钮入口'!E104</f>
         <v>103</v>
       </c>
       <c r="E104" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E104</f>
+        <f>'all_enter|所有按钮入口'!F104</f>
         <v>核弹</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="6">
-        <f>'all_enter|所有按钮入口'!D105</f>
+        <f>'all_enter|所有按钮入口'!E105</f>
         <v>104</v>
       </c>
       <c r="E105" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E105</f>
+        <f>'all_enter|所有按钮入口'!F105</f>
         <v>大额福利券（跳转小游戏入口）</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="6">
-        <f>'all_enter|所有按钮入口'!D106</f>
+        <f>'all_enter|所有按钮入口'!E106</f>
         <v>105</v>
       </c>
       <c r="E106" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E106</f>
+        <f>'all_enter|所有按钮入口'!F106</f>
         <v>金鸡送礼（冲金鸡）</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="6">
-        <f>'all_enter|所有按钮入口'!D107</f>
+        <f>'all_enter|所有按钮入口'!E107</f>
         <v>106</v>
       </c>
       <c r="E107" s="6" t="str">
-        <f>'all_enter|所有按钮入口'!E107</f>
+        <f>'all_enter|所有按钮入口'!F107</f>
         <v>万圣幸运礼包</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="18">
-        <f>'all_enter|所有按钮入口'!D108</f>
+      <c r="D108" s="6">
+        <f>'all_enter|所有按钮入口'!E108</f>
         <v>107</v>
       </c>
-      <c r="E108" s="18" t="str">
-        <f>'all_enter|所有按钮入口'!E108</f>
+      <c r="E108" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F108</f>
         <v>新人专享</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="6">
+        <f>'all_enter|所有按钮入口'!E109</f>
         <v>108</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>302</v>
+      <c r="E109" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F109</f>
+        <v>排行榜总入口</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="6">
+        <f>'all_enter|所有按钮入口'!E110</f>
+        <v>109</v>
+      </c>
+      <c r="E110" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F110</f>
+        <v>深海探险</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="6">
+        <f>'all_enter|所有按钮入口'!E111</f>
+        <v>110</v>
+      </c>
+      <c r="E111" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F111</f>
+        <v>一本万利</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="6">
+        <f>'all_enter|所有按钮入口'!E112</f>
+        <v>111</v>
+      </c>
+      <c r="E112" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!F112</f>
+        <v>UI-精彩活动</v>
       </c>
     </row>
   </sheetData>
